--- a/Analysis/Summary-Fits.xlsx
+++ b/Analysis/Summary-Fits.xlsx
@@ -1871,16 +1871,24 @@
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="13">
+      <c r="D17" s="17">
+        <v>4.15268</v>
+      </c>
+      <c r="E17" s="17">
+        <v>32</v>
+      </c>
+      <c r="F17" s="17">
         <v>691</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="18">
+        <v>2945.836594360570</v>
+      </c>
+      <c r="H17" t="s" s="16">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="10"/>

--- a/Analysis/Summary-Fits.xlsx
+++ b/Analysis/Summary-Fits.xlsx
@@ -1573,16 +1573,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="8">
-        <v>4.99287</v>
+        <v>3.60949</v>
       </c>
       <c r="E2" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="8">
         <v>691</v>
       </c>
       <c r="G2" s="9">
-        <v>3477.888026827820</v>
+        <v>2555.659236299120</v>
       </c>
       <c r="H2" s="9"/>
     </row>
@@ -1613,16 +1613,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="13">
-        <v>6.67175</v>
+        <v>4.96996</v>
       </c>
       <c r="E4" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="13">
         <v>691</v>
       </c>
       <c r="G4" s="14">
-        <v>4607.640656651590</v>
+        <v>3467.174136299120</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -1993,16 +1993,16 @@
         <v>6</v>
       </c>
       <c r="D23" s="13">
-        <v>25.9451</v>
+        <v>25.9355</v>
       </c>
       <c r="E23" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="13">
         <v>373</v>
       </c>
       <c r="G23" s="21">
-        <v>9377.169476294661</v>
+        <v>9393.746597875010</v>
       </c>
       <c r="H23" s="21"/>
     </row>

--- a/Analysis/Summary-Fits.xlsx
+++ b/Analysis/Summary-Fits.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>χ2</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Base Fit</t>
+  </si>
+  <si>
+    <t>Lamellae</t>
   </si>
   <si>
     <t>Magnetic SiOx</t>
@@ -383,7 +386,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -451,6 +454,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1532,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1593,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="13">
-        <v>6.66588</v>
+        <v>2.66485</v>
       </c>
       <c r="E3" s="13">
         <v>22</v>
@@ -1602,7 +1608,7 @@
         <v>691</v>
       </c>
       <c r="G3" s="14">
-        <v>4603.312796122890</v>
+        <v>1926.62373</v>
       </c>
       <c r="H3" s="14"/>
     </row>
@@ -1613,16 +1619,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="13">
-        <v>4.96996</v>
+        <v>6.66588</v>
       </c>
       <c r="E4" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="13">
         <v>691</v>
       </c>
       <c r="G4" s="14">
-        <v>3467.174136299120</v>
+        <v>4603.312796122890</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -1633,122 +1639,122 @@
         <v>9</v>
       </c>
       <c r="D5" s="13">
-        <v>4.32798</v>
+        <v>4.96996</v>
       </c>
       <c r="E5" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="13">
         <v>691</v>
       </c>
       <c r="G5" s="14">
-        <v>3032.627216651590</v>
+        <v>3467.174136299120</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" t="s" s="15">
+      <c r="B6" s="11"/>
+      <c r="C6" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C6" t="s" s="12">
-        <v>11</v>
-      </c>
       <c r="D6" s="13">
-        <v>3.31793</v>
+        <v>4.32798</v>
       </c>
       <c r="E6" s="13">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F6" s="13">
         <v>691</v>
       </c>
       <c r="G6" s="14">
-        <v>2386.075714889260</v>
+        <v>3032.627216651590</v>
       </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" t="s" s="16">
+      <c r="B7" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="D7" s="17">
-        <v>2.2951</v>
-      </c>
-      <c r="E7" s="17">
-        <v>32</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="D7" s="13">
+        <v>3.31793</v>
+      </c>
+      <c r="E7" s="13">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13">
         <v>691</v>
       </c>
-      <c r="G7" s="18">
-        <v>1721.691374360570</v>
-      </c>
-      <c r="H7" t="s" s="16">
-        <v>13</v>
-      </c>
+      <c r="G7" s="14">
+        <v>2386.075714889260</v>
+      </c>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" t="s" s="12">
+      <c r="C8" t="s" s="16">
+        <v>13</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2.2951</v>
+      </c>
+      <c r="E8" s="17">
+        <v>32</v>
+      </c>
+      <c r="F8" s="17">
+        <v>691</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1721.691374360570</v>
+      </c>
+      <c r="H8" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="D8" s="13">
-        <v>4.19814</v>
-      </c>
-      <c r="E8" s="13">
-        <v>34</v>
-      </c>
-      <c r="F8" s="13">
-        <v>691</v>
-      </c>
-      <c r="G8" s="14">
-        <v>2980.4747340081</v>
-      </c>
-      <c r="H8" s="14"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="11"/>
+      <c r="C9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
       <c r="D9" s="13">
-        <v>8.294779999999999</v>
+        <v>4.19814</v>
       </c>
       <c r="E9" s="13">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F9" s="13">
         <v>691</v>
       </c>
       <c r="G9" s="14">
-        <v>5686.020335417960</v>
+        <v>2980.4747340081</v>
       </c>
       <c r="H9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="B10" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="C10" t="s" s="12">
         <v>12</v>
       </c>
       <c r="D10" s="13">
-        <v>9.020099999999999</v>
+        <v>8.294779999999999</v>
       </c>
       <c r="E10" s="13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="13">
         <v>691</v>
       </c>
       <c r="G10" s="14">
-        <v>6163.394215065490</v>
+        <v>5686.020335417960</v>
       </c>
       <c r="H10" s="14"/>
     </row>
@@ -1756,328 +1762,326 @@
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" t="s" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="13">
-        <v>9.351599999999999</v>
+        <v>9.020099999999999</v>
       </c>
       <c r="E11" s="13">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="13">
         <v>691</v>
       </c>
       <c r="G11" s="14">
-        <v>6377.551794713030</v>
+        <v>6163.394215065490</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="C12" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13">
+        <v>9.351599999999999</v>
+      </c>
+      <c r="E12" s="13">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13">
+        <v>691</v>
+      </c>
+      <c r="G12" s="14">
+        <v>6377.551794713030</v>
+      </c>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="20">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s" s="15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C14" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <v>18.1924</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>21</v>
-      </c>
-      <c r="F13" s="13">
-        <v>691</v>
-      </c>
-      <c r="G13" s="13">
-        <v>12326.20894</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" t="s" s="12">
-        <v>7</v>
-      </c>
-      <c r="D14" s="13">
-        <v>13.306</v>
-      </c>
-      <c r="E14" s="13">
-        <v>22</v>
       </c>
       <c r="F14" s="13">
         <v>691</v>
       </c>
-      <c r="G14" s="14">
-        <v>9081.812876122891</v>
-      </c>
-      <c r="H14" s="14"/>
+      <c r="G14" s="13">
+        <v>12326.20894</v>
+      </c>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="D15" s="13">
-        <v>5.11374</v>
-      </c>
-      <c r="E15" s="13">
-        <v>20</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="C15" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="D15" s="17">
+        <v>3.72801</v>
+      </c>
+      <c r="E15" s="17">
+        <v>22</v>
+      </c>
+      <c r="F15" s="17">
         <v>691</v>
       </c>
-      <c r="G15" s="14">
-        <v>3562.082336475350</v>
-      </c>
-      <c r="H15" s="14"/>
+      <c r="G15" s="18">
+        <v>2637.877766122890</v>
+      </c>
+      <c r="H15" t="s" s="16">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" t="s" s="15">
-        <v>10</v>
-      </c>
+      <c r="B16" s="11"/>
       <c r="C16" t="s" s="12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="13">
-        <v>5.03317</v>
+        <v>13.306</v>
       </c>
       <c r="E16" s="13">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F16" s="13">
         <v>691</v>
       </c>
       <c r="G16" s="14">
-        <v>3523.069564713030</v>
+        <v>9081.812876122891</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" t="s" s="16">
-        <v>12</v>
-      </c>
-      <c r="D17" s="17">
-        <v>4.15268</v>
-      </c>
-      <c r="E17" s="17">
-        <v>32</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="C17" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D17" s="13">
+        <v>5.11374</v>
+      </c>
+      <c r="E17" s="13">
+        <v>20</v>
+      </c>
+      <c r="F17" s="13">
         <v>691</v>
       </c>
-      <c r="G17" s="18">
-        <v>2945.836594360570</v>
-      </c>
-      <c r="H17" t="s" s="16">
-        <v>13</v>
-      </c>
+      <c r="G17" s="14">
+        <v>3562.082336475350</v>
+      </c>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
+      <c r="B18" t="s" s="15">
+        <v>11</v>
+      </c>
       <c r="C18" t="s" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="13">
-        <v>4.82868</v>
+        <v>5.03317</v>
       </c>
       <c r="E18" s="13">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="13">
         <v>691</v>
       </c>
       <c r="G18" s="14">
-        <v>3394.7395140081</v>
+        <v>3523.069564713030</v>
       </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="10"/>
-      <c r="B19" t="s" s="15">
-        <v>15</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="C19" t="s" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" s="13">
-        <v>5.56671</v>
+        <v>4.15268</v>
       </c>
       <c r="E19" s="13">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F19" s="13">
         <v>691</v>
       </c>
       <c r="G19" s="14">
-        <v>3871.853785417960</v>
-      </c>
-      <c r="H19" s="14"/>
+        <v>2945.836594360570</v>
+      </c>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" t="s" s="12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="13">
-        <v>6.15792</v>
+        <v>4.82868</v>
       </c>
       <c r="E20" s="13">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F20" s="13">
         <v>691</v>
       </c>
       <c r="G20" s="14">
-        <v>4265.768875065490</v>
+        <v>3394.7395140081</v>
       </c>
       <c r="H20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
+      <c r="B21" t="s" s="15">
+        <v>16</v>
+      </c>
       <c r="C21" t="s" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="13">
-        <v>6.46921</v>
+        <v>5.56671</v>
       </c>
       <c r="E21" s="13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="13">
         <v>691</v>
       </c>
       <c r="G21" s="14">
-        <v>4472.292004713030</v>
+        <v>3871.853785417960</v>
       </c>
       <c r="H21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="C22" t="s" s="12">
+        <v>13</v>
+      </c>
+      <c r="D22" s="13">
+        <v>6.15792</v>
+      </c>
+      <c r="E22" s="13">
+        <v>28</v>
+      </c>
+      <c r="F22" s="13">
+        <v>691</v>
+      </c>
+      <c r="G22" s="14">
+        <v>4265.768875065490</v>
+      </c>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s" s="15">
-        <v>18</v>
-      </c>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" t="s" s="12">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D23" s="13">
-        <v>25.9355</v>
+        <v>6.46921</v>
       </c>
       <c r="E23" s="13">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F23" s="13">
-        <v>373</v>
-      </c>
-      <c r="G23" s="21">
-        <v>9393.746597875010</v>
-      </c>
-      <c r="H23" s="21"/>
+        <v>691</v>
+      </c>
+      <c r="G23" s="14">
+        <v>4472.292004713030</v>
+      </c>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="10"/>
-      <c r="B24" t="s" s="15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="D24" s="13">
-        <v>25.8801</v>
-      </c>
-      <c r="E24" s="13">
-        <v>18</v>
-      </c>
-      <c r="F24" s="13">
-        <v>373</v>
-      </c>
-      <c r="G24" s="21">
-        <v>9294.023911553590</v>
-      </c>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
       <c r="C25" t="s" s="12">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D25" s="13">
-        <v>24.8878</v>
+        <v>25.9355</v>
       </c>
       <c r="E25" s="13">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F25" s="13">
         <v>373</v>
       </c>
       <c r="G25" s="21">
-        <v>8941.757411553590</v>
+        <v>9393.746597875010</v>
       </c>
       <c r="H25" s="21"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="D26" s="17">
-        <v>17.0465</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="B26" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13">
+        <v>25.8801</v>
+      </c>
+      <c r="E26" s="13">
         <v>18</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="13">
         <v>373</v>
       </c>
-      <c r="G26" s="22">
-        <v>6158.095911553590</v>
-      </c>
-      <c r="H26" t="s" s="16">
-        <v>13</v>
-      </c>
+      <c r="G26" s="21">
+        <v>9294.023911553590</v>
+      </c>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" t="s" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="13">
-        <v>22.3754</v>
+        <v>24.8878</v>
       </c>
       <c r="E27" s="13">
         <v>18</v>
@@ -2086,29 +2090,118 @@
         <v>373</v>
       </c>
       <c r="G27" s="21">
-        <v>8049.855411553590</v>
+        <v>8941.757411553590</v>
       </c>
       <c r="H27" s="21"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="C28" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="D28" s="17">
+        <v>17.0465</v>
+      </c>
+      <c r="E28" s="17">
+        <v>18</v>
+      </c>
+      <c r="F28" s="17">
+        <v>373</v>
+      </c>
+      <c r="G28" s="22">
+        <v>6158.095911553590</v>
+      </c>
+      <c r="H28" t="s" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="D29" s="13">
+        <v>22.3754</v>
+      </c>
+      <c r="E29" s="13">
+        <v>18</v>
+      </c>
+      <c r="F29" s="13">
+        <v>373</v>
+      </c>
+      <c r="G29" s="21">
+        <v>8049.855411553590</v>
+      </c>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s" s="15">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="D31" s="13">
+        <v>4.82583</v>
+      </c>
+      <c r="E31" s="13">
+        <v>21</v>
+      </c>
+      <c r="F31" s="13">
+        <v>691</v>
+      </c>
+      <c r="G31" s="14">
+        <v>3370.607036299120</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="23"/>
+      <c r="B32" s="11"/>
+      <c r="C32" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="D32" s="17">
+        <v>3.73193</v>
+      </c>
+      <c r="E32" s="17">
+        <v>22</v>
+      </c>
+      <c r="F32" s="17">
+        <v>691</v>
+      </c>
+      <c r="G32" s="18">
+        <v>2640.500246122890</v>
+      </c>
+      <c r="H32" t="s" s="16">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B24:B27"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/Analysis/Summary-Fits.xlsx
+++ b/Analysis/Summary-Fits.xlsx
@@ -91,6 +91,9 @@
     <t>Lamellae</t>
   </si>
   <si>
+    <t>Best</t>
+  </si>
+  <si>
     <t>Magnetic SiOx</t>
   </si>
   <si>
@@ -132,9 +135,6 @@
   </si>
   <si>
     <t>6 Control Points</t>
-  </si>
-  <si>
-    <t>Best</t>
   </si>
   <si>
     <t>7 Control Points</t>
@@ -423,6 +423,15 @@
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -433,15 +442,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1599,204 +1599,204 @@
         <v>7</v>
       </c>
       <c r="D3" s="13">
-        <v>2.66485</v>
+        <v>2.3103</v>
       </c>
       <c r="E3" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="13">
         <v>691</v>
       </c>
       <c r="G3" s="14">
-        <v>1926.62373</v>
-      </c>
-      <c r="H3" s="14"/>
+        <v>1693.657615946660</v>
+      </c>
+      <c r="H3" t="s" s="12">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
-      <c r="C4" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16">
         <v>6.66588</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="16">
         <v>22</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="16">
         <v>691</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="17">
         <v>4603.312796122890</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
-      <c r="C5" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16">
         <v>4.96996</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="16">
         <v>21</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="16">
         <v>691</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="17">
         <v>3467.174136299120</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
-      <c r="C6" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C6" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D6" s="16">
         <v>4.32798</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="16">
         <v>19</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="16">
         <v>691</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="17">
         <v>3032.627216651590</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" t="s" s="15">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="12">
+      <c r="B7" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="D7" s="13">
+      <c r="C7" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16">
         <v>3.31793</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="16">
         <v>29</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="16">
         <v>691</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="17">
         <v>2386.075714889260</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" t="s" s="16">
-        <v>13</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C8" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16">
         <v>2.2951</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>32</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>691</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>1721.691374360570</v>
       </c>
-      <c r="H8" t="s" s="16">
-        <v>14</v>
-      </c>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
-      <c r="C9" t="s" s="12">
+      <c r="C9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="16">
         <v>4.19814</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="16">
         <v>34</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="16">
         <v>691</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="17">
         <v>2980.4747340081</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" t="s" s="15">
+      <c r="B10" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="C10" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D10" s="16">
         <v>8.294779999999999</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="16">
         <v>26</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="16">
         <v>691</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="17">
         <v>5686.020335417960</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="C11" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D11" s="16">
         <v>9.020099999999999</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="16">
         <v>28</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="16">
         <v>691</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="17">
         <v>6163.394215065490</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="16">
         <v>9.351599999999999</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="16">
         <v>30</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="16">
         <v>691</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="17">
         <v>6377.551794713030</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="10"/>
@@ -1812,22 +1812,22 @@
       <c r="A14" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="B14" t="s" s="15">
+      <c r="B14" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="16">
         <v>18.1924</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="16">
         <v>21</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="16">
         <v>691</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="16">
         <v>12326.20894</v>
       </c>
       <c r="H14" s="19"/>
@@ -1835,103 +1835,103 @@
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" t="s" s="16">
+      <c r="C15" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="D15" s="17">
-        <v>3.72801</v>
-      </c>
-      <c r="E15" s="17">
-        <v>22</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="D15" s="13">
+        <v>3.75216</v>
+      </c>
+      <c r="E15" s="13">
+        <v>23</v>
+      </c>
+      <c r="F15" s="13">
         <v>691</v>
       </c>
-      <c r="G15" s="18">
-        <v>2637.877766122890</v>
-      </c>
-      <c r="H15" t="s" s="16">
-        <v>14</v>
+      <c r="G15" s="14">
+        <v>2656.820095946660</v>
+      </c>
+      <c r="H15" t="s" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="C16" t="s" s="15">
+        <v>9</v>
+      </c>
+      <c r="D16" s="16">
         <v>13.306</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="16">
         <v>22</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="16">
         <v>691</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="17">
         <v>9081.812876122891</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="16">
         <v>5.11374</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="16">
         <v>20</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="16">
         <v>691</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="17">
         <v>3562.082336475350</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" t="s" s="15">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s" s="12">
+      <c r="B18" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="D18" s="13">
+      <c r="C18" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D18" s="16">
         <v>5.03317</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="16">
         <v>30</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="16">
         <v>691</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="17">
         <v>3523.069564713030</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D19" s="16">
         <v>4.15268</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="16">
         <v>32</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="16">
         <v>691</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="17">
         <v>2945.836594360570</v>
       </c>
       <c r="H19" s="19"/>
@@ -1939,84 +1939,84 @@
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="16">
         <v>4.82868</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="16">
         <v>34</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="16">
         <v>691</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="17">
         <v>3394.7395140081</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" t="s" s="15">
+      <c r="B21" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D21" s="16">
         <v>5.56671</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="16">
         <v>26</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="16">
         <v>691</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="17">
         <v>3871.853785417960</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
-      <c r="C22" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="D22" s="16">
         <v>6.15792</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="16">
         <v>28</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="16">
         <v>691</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="17">
         <v>4265.768875065490</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="16">
         <v>6.46921</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="16">
         <v>30</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="16">
         <v>691</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="17">
         <v>4472.292004713030</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="10"/>
@@ -2032,19 +2032,19 @@
       <c r="A25" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="B25" t="s" s="15">
+      <c r="B25" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="C25" t="s" s="12">
+      <c r="C25" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="16">
         <v>25.9355</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="16">
         <v>14</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="16">
         <v>373</v>
       </c>
       <c r="G25" s="21">
@@ -2054,19 +2054,19 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" t="s" s="15">
+      <c r="B26" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="16">
         <v>25.8801</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="16">
         <v>18</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="16">
         <v>373</v>
       </c>
       <c r="G26" s="21">
@@ -2077,16 +2077,16 @@
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="16">
         <v>24.8878</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="16">
         <v>18</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="16">
         <v>373</v>
       </c>
       <c r="G27" s="21">
@@ -2097,38 +2097,38 @@
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
-      <c r="C28" t="s" s="16">
+      <c r="C28" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="13">
         <v>17.0465</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="13">
         <v>18</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="13">
         <v>373</v>
       </c>
       <c r="G28" s="22">
         <v>6158.095911553590</v>
       </c>
-      <c r="H28" t="s" s="16">
-        <v>14</v>
+      <c r="H28" t="s" s="12">
+        <v>8</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
-      <c r="C29" t="s" s="12">
+      <c r="C29" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="16">
         <v>22.3754</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="16">
         <v>18</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="16">
         <v>373</v>
       </c>
       <c r="G29" s="21">
@@ -2150,22 +2150,22 @@
       <c r="A31" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="B31" t="s" s="15">
+      <c r="B31" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="16">
         <v>4.82583</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="16">
         <v>21</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="16">
         <v>691</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="17">
         <v>3370.607036299120</v>
       </c>
       <c r="H31" s="19"/>
@@ -2173,23 +2173,23 @@
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="23"/>
       <c r="B32" s="11"/>
-      <c r="C32" t="s" s="16">
+      <c r="C32" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="13">
         <v>3.73193</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <v>22</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="13">
         <v>691</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="14">
         <v>2640.500246122890</v>
       </c>
-      <c r="H32" t="s" s="16">
-        <v>14</v>
+      <c r="H32" t="s" s="12">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/Summary-Fits.xlsx
+++ b/Analysis/Summary-Fits.xlsx
@@ -2177,16 +2177,16 @@
         <v>7</v>
       </c>
       <c r="D32" s="13">
-        <v>3.73193</v>
+        <v>3.12719</v>
       </c>
       <c r="E32" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" s="13">
         <v>691</v>
       </c>
       <c r="G32" s="14">
-        <v>2640.500246122890</v>
+        <v>2239.340135946660</v>
       </c>
       <c r="H32" t="s" s="12">
         <v>8</v>
